--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -21,13 +21,13 @@
     <sheet name="df2" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'df2'!$A$1:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'df2'!$A$1:$L$9</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">Columns</t>
   </si>
@@ -41,6 +41,12 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted</t>
+  </si>
+  <si>
     <t xml:space="preserve">Changed</t>
   </si>
   <si>
@@ -50,12 +56,6 @@
     <t xml:space="preserve">Rows</t>
   </si>
   <si>
-    <t xml:space="preserve">Added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deleted</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unchanged</t>
   </si>
   <si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Changes</t>
   </si>
   <si>
-    <t xml:space="preserve">Mismatched class</t>
+    <t xml:space="preserve">Classes match</t>
   </si>
   <si>
     <t xml:space="preserve">df1 class</t>
@@ -137,6 +137,12 @@
     <t xml:space="preserve">dec_diff</t>
   </si>
   <si>
+    <t xml:space="preserve">extra1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra2</t>
+  </si>
+  <si>
     <t xml:space="preserve">source</t>
   </si>
   <si>
@@ -230,9 +236,6 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">matched</t>
-  </si>
-  <si>
     <t xml:space="preserve">exact dup cnt.df1</t>
   </si>
   <si>
@@ -291,6 +294,18 @@
   </si>
   <si>
     <t xml:space="preserve">dec_diff.df2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra1.df1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra1.df2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra2.df1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra2.df2</t>
   </si>
   <si>
     <t xml:space="preserve">exact duplicate</t>
@@ -403,7 +418,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -713,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -724,61 +753,61 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -786,40 +815,36 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
@@ -827,12 +852,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -867,11 +914,13 @@
     <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -880,10 +929,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -912,6 +961,12 @@
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -921,10 +976,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>2</v>
@@ -933,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>5</v>
@@ -942,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="n">
@@ -954,6 +1009,10 @@
       <c r="N2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -963,10 +1022,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>2</v>
@@ -975,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>5</v>
@@ -984,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="n">
@@ -996,9 +1055,13 @@
       <c r="N3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N3"/>
+  <autoFilter ref="A1:P3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -1028,11 +1091,13 @@
     <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -1041,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1070,6 +1135,12 @@
       <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1080,13 +1151,13 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>5</v>
@@ -1095,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="n">
@@ -1107,9 +1178,13 @@
       <c r="M2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2"/>
+  <autoFilter ref="A1:O2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -1137,6 +1212,7 @@
     <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="15.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1173,19 +1249,22 @@
       <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1</v>
@@ -1204,13 +1283,16 @@
       <c r="K2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -1231,17 +1313,20 @@
       <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
@@ -1261,6 +1346,9 @@
       </c>
       <c r="K4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1268,13 +1356,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>3</v>
@@ -1293,19 +1381,22 @@
       <c r="K5" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>5</v>
@@ -1326,19 +1417,22 @@
       <c r="K6" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>5</v>
@@ -1359,19 +1453,22 @@
       <c r="K7" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>5</v>
@@ -1392,19 +1489,22 @@
       <c r="K8" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>5</v>
@@ -1425,6 +1525,9 @@
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1435,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>5</v>
@@ -1455,6 +1558,9 @@
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1462,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>5</v>
@@ -1489,9 +1595,12 @@
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K11"/>
+  <autoFilter ref="A1:L11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -1519,6 +1628,7 @@
     <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="15.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1555,19 +1665,22 @@
       <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1</v>
@@ -1577,7 +1690,7 @@
         <v>44927</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="n">
@@ -1586,19 +1699,22 @@
       <c r="K2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -1608,7 +1724,7 @@
         <v>44927</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="n">
@@ -1617,19 +1733,22 @@
       <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1</v>
@@ -1639,7 +1758,7 @@
         <v>44927</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="n">
@@ -1648,13 +1767,16 @@
       <c r="K4" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
@@ -1666,7 +1788,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="n">
@@ -1675,17 +1797,20 @@
       <c r="K5" s="2" t="n">
         <v>1.0001</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>2</v>
@@ -1697,7 +1822,7 @@
         <v>44929</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="n">
@@ -1706,19 +1831,22 @@
       <c r="K6" s="2" t="n">
         <v>1.00001</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
@@ -1728,7 +1856,7 @@
         <v>44930</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="n">
@@ -1737,19 +1865,22 @@
       <c r="K7" s="2" t="n">
         <v>1.000001</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>6</v>
@@ -1761,7 +1892,7 @@
         <v>44932</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="n">
@@ -1769,6 +1900,9 @@
       </c>
       <c r="K8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1776,13 +1910,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>5</v>
@@ -1794,7 +1928,7 @@
         <v>44931</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="n">
@@ -1803,9 +1937,12 @@
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K9"/>
+  <autoFilter ref="A1:L9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -1867,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
@@ -1890,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -1913,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -1936,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -1959,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
@@ -1982,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
@@ -2005,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>31</v>
@@ -2028,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
@@ -2051,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
@@ -2074,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
@@ -2097,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>21</v>
@@ -2106,8 +2243,51 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G12"/>
+  <autoFilter ref="A1:G14"/>
+  <conditionalFormatting sqref="B2:E14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE", B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2140,11 +2320,13 @@
     <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
     <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="15.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="15.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -2153,16 +2335,16 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>24</v>
@@ -2191,6 +2373,12 @@
       <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2200,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1</v>
@@ -2214,17 +2402,17 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3" t="n">
@@ -2233,6 +2421,10 @@
       <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -2242,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -2258,17 +2450,17 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="4" t="n">
@@ -2277,6 +2469,10 @@
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -2286,10 +2482,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
@@ -2306,7 +2502,7 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="n">
@@ -2315,6 +2511,10 @@
       <c r="P4" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -2324,10 +2524,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -2344,7 +2544,7 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="4" t="n">
@@ -2353,6 +2553,10 @@
       <c r="P5" s="4" t="n">
         <v>1.0001</v>
       </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2362,10 +2566,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>3</v>
@@ -2374,7 +2578,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>2</v>
@@ -2383,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="n">
@@ -2395,6 +2599,10 @@
       <c r="P6" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="Q6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2404,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
@@ -2416,7 +2624,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>2</v>
@@ -2425,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="4" t="n">
@@ -2437,6 +2645,10 @@
       <c r="P7" s="4" t="n">
         <v>1.00001</v>
       </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -2446,10 +2658,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>4</v>
@@ -2460,17 +2672,17 @@
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="3" t="n">
@@ -2479,6 +2691,10 @@
       <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Q8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -2488,10 +2704,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>4</v>
@@ -2502,17 +2718,17 @@
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="4" t="n">
@@ -2521,6 +2737,10 @@
       <c r="P9" s="2" t="n">
         <v>1.000001</v>
       </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -2530,10 +2750,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2544,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>5</v>
@@ -2553,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="n">
@@ -2565,6 +2785,10 @@
       <c r="P10" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Q10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -2574,10 +2798,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2588,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>5</v>
@@ -2597,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="n">
@@ -2609,6 +2833,10 @@
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Q11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -2618,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="n">
@@ -2632,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>5</v>
@@ -2641,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="n">
@@ -2653,6 +2881,10 @@
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="Q12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -2663,7 +2895,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2672,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>5</v>
@@ -2681,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="n">
@@ -2693,6 +2925,10 @@
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Q13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -2702,10 +2938,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2714,7 +2950,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>6</v>
@@ -2723,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="n">
@@ -2735,6 +2971,10 @@
       <c r="P14" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -2744,19 +2984,21 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>5</v>
@@ -2765,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="n">
@@ -2777,9 +3019,61 @@
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Q15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P15"/>
+  <autoFilter ref="A1:R16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2809,88 +3103,76 @@
     <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2"/>
+  <autoFilter ref="A1:O1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2921,11 +3203,12 @@
     <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -2934,10 +3217,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2966,6 +3249,9 @@
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2975,31 +3261,31 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="n">
@@ -3008,9 +3294,12 @@
       <c r="N2" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N2"/>
+  <autoFilter ref="A1:O2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -3041,11 +3330,12 @@
     <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -3054,10 +3344,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -3086,6 +3376,9 @@
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3095,17 +3388,17 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>6</v>
@@ -3114,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="n">
@@ -3126,9 +3419,12 @@
       <c r="N2" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N2"/>
+  <autoFilter ref="A1:O2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -3160,11 +3456,13 @@
     <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
     <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="15.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -3173,13 +3471,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>24</v>
@@ -3208,6 +3506,12 @@
       <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3217,10 +3521,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1</v>
@@ -3230,17 +3534,17 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="3" t="n">
@@ -3249,6 +3553,10 @@
       <c r="O2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -3258,10 +3566,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -3273,17 +3581,17 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="4" t="n">
@@ -3292,6 +3600,10 @@
       <c r="O3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -3301,10 +3613,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
@@ -3320,7 +3632,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="3" t="n">
@@ -3329,6 +3641,10 @@
       <c r="O4" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="P4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -3338,10 +3654,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -3357,7 +3673,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="4" t="n">
@@ -3366,6 +3682,10 @@
       <c r="O5" s="4" t="n">
         <v>1.0001</v>
       </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -3375,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>3</v>
@@ -3386,7 +3706,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>2</v>
@@ -3395,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="3" t="n">
@@ -3407,6 +3727,10 @@
       <c r="O6" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="P6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -3416,10 +3740,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
@@ -3427,7 +3751,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>2</v>
@@ -3436,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="4" t="n">
@@ -3448,6 +3772,10 @@
       <c r="O7" s="4" t="n">
         <v>1.00001</v>
       </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -3457,10 +3785,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>4</v>
@@ -3470,17 +3798,17 @@
         <v>4</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>3</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="3" t="n">
@@ -3489,6 +3817,10 @@
       <c r="O8" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="P8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -3498,10 +3830,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>4</v>
@@ -3511,17 +3843,17 @@
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="4" t="n">
@@ -3530,9 +3862,107 @@
       <c r="O9" s="2" t="n">
         <v>1.000001</v>
       </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O9"/>
+  <autoFilter ref="A1:Q11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -3573,6 +4003,10 @@
     <col min="22" max="22" width="15.71" hidden="0" customWidth="1"/>
     <col min="23" max="23" width="15.71" hidden="0" customWidth="1"/>
     <col min="24" max="24" width="15.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="15.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="15.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="15.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3583,70 +4017,82 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -3654,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -3673,10 +4119,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>1</v>
@@ -3687,16 +4133,16 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -3712,16 +4158,24 @@
       <c r="X2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="Y2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2</v>
@@ -3747,10 +4201,10 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -3766,16 +4220,24 @@
       <c r="X3" s="4" t="n">
         <v>1.0001</v>
       </c>
+      <c r="Y3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
@@ -3785,10 +4247,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>2</v>
@@ -3803,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -3828,16 +4290,24 @@
       <c r="X4" s="4" t="n">
         <v>1.00001</v>
       </c>
+      <c r="Y4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
@@ -3851,10 +4321,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>3</v>
@@ -3865,16 +4335,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -3890,9 +4360,91 @@
       <c r="X5" s="2" t="n">
         <v>1.000001</v>
       </c>
+      <c r="Y5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X5"/>
+  <autoFilter ref="A1:AB6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -3923,11 +4475,13 @@
     <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -3936,10 +4490,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -3968,6 +4522,12 @@
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3977,31 +4537,31 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="n">
@@ -4010,6 +4570,10 @@
       <c r="N2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -4019,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>3</v>
@@ -4031,17 +4595,17 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="n">
@@ -4050,9 +4614,13 @@
       <c r="N3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N3"/>
+  <autoFilter ref="A1:P3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -8,8 +8,8 @@
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="summary by column" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data_top_bottom" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data_left_right" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data top-bottom" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data left-right" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="df1" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="df2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>

--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">Summary: df1 and df2 have different records and/or non-unique records</t>
   </si>
@@ -175,12 +175,12 @@
     <t xml:space="preserve">extra2</t>
   </si>
   <si>
+    <t xml:space="preserve">discrepancy</t>
+  </si>
+  <si>
     <t xml:space="preserve">source</t>
   </si>
   <si>
-    <t xml:space="preserve">discrepancy</t>
-  </si>
-  <si>
     <t xml:space="preserve">change group</t>
   </si>
   <si>
@@ -268,6 +268,18 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">exact dup cnt.df1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exact dup cnt.df2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID dup cnt.df1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID dup cnt.df2</t>
+  </si>
+  <si>
     <t xml:space="preserve">num.df1</t>
   </si>
   <si>
@@ -332,6 +344,12 @@
   </si>
   <si>
     <t xml:space="preserve">extra2.df2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1 ID duplicate (not exact duplicate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1 ID contains `NA`</t>
   </si>
 </sst>
 </file>
@@ -368,13 +386,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF32CD32"/>
       <name val="Calibri"/>
       <b/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF3030"/>
       <name val="Calibri"/>
       <b/>
     </font>
@@ -398,7 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,10 +461,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1351,9 +1378,9 @@
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="15.71" hidden="0" outlineLevel="1" customWidth="1"/>
-    <col min="4" max="4" width="15.71" hidden="0" outlineLevel="1" customWidth="1"/>
-    <col min="5" max="5" width="15.71" hidden="0" outlineLevel="1" customWidth="1"/>
+    <col min="3" max="3" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="4" max="4" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
     <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
@@ -1427,10 +1454,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
@@ -1460,71 +1487,71 @@
         <v>60</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="C3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7" t="s">
+      <c r="M3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>2</v>
@@ -1550,65 +1577,65 @@
         <v>60</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="O4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="C5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="7" t="n">
+      <c r="H5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="8" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="8" t="n">
         <v>1.0001</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7" t="s">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -1638,69 +1665,69 @@
         <v>60</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+      <c r="O6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="n">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="J7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="7" t="n">
+      <c r="M7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="8" t="n">
         <v>-0.00001</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="8" t="n">
         <v>1.00001</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>4</v>
@@ -1730,69 +1757,69 @@
         <v>60</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="n">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="7" t="n">
+      <c r="M9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="8" t="n">
         <v>-0.000001</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="6" t="n">
         <v>1.000001</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7" t="s">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1830,17 +1857,17 @@
       <c r="P10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1878,17 +1905,17 @@
       <c r="P11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="7"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="n">
@@ -1901,42 +1928,42 @@
       <c r="G12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="J12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+      <c r="M12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="7"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1970,63 +1997,63 @@
       <c r="P13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="7"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="n">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="K14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="7" t="s">
+      <c r="M14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>7</v>
@@ -2064,56 +2091,56 @@
       <c r="P15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="7"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="n">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="J16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7" t="s">
+      <c r="M16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2129,18 +2156,18 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="1" xSplit="7" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane ySplit="1" xSplit="8" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="15.71" hidden="0" outlineLevel="1" customWidth="1"/>
-    <col min="4" max="4" width="15.71" hidden="0" outlineLevel="1" customWidth="1"/>
-    <col min="5" max="5" width="15.71" hidden="0" outlineLevel="1" customWidth="1"/>
-    <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="3" max="3" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="4" max="4" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="6" max="6" width="15.71" hidden="1" outlineLevel="1" customWidth="1"/>
     <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
@@ -2164,6 +2191,7 @@
     <col min="27" max="27" width="15.71" hidden="0" customWidth="1"/>
     <col min="28" max="28" width="15.71" hidden="0" customWidth="1"/>
     <col min="29" max="29" width="15.71" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2171,703 +2199,737 @@
         <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>58</v>
+      <c r="J2" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="5" t="n">
-        <v>1</v>
+      <c r="L2" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="P2" s="6"/>
       <c r="Q2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>60</v>
+      <c r="R2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="V2" s="6"/>
       <c r="W2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="Y2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="R3" s="6"/>
       <c r="S3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="5"/>
+      <c r="T3" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="U3" s="5"/>
-      <c r="V3" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="V3" s="6"/>
       <c r="W3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="X3" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="Y3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8" t="n">
         <v>1.0001</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="7" t="s">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6"/>
+      <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>2</v>
+      <c r="L4" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N4" s="5" t="b">
-        <v>0</v>
+      <c r="N4" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="O4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>65</v>
+      <c r="P4" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>60</v>
+      <c r="R4" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="5"/>
+      <c r="T4" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="U4" s="5"/>
-      <c r="V4" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="V4" s="6"/>
       <c r="W4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8" t="n">
         <v>-0.00001</v>
       </c>
-      <c r="X4" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="Y4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="8" t="n">
         <v>1.00001</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7" t="s">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>4</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>67</v>
+      <c r="J5" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="5" t="n">
-        <v>3</v>
+      <c r="L5" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="P5" s="6"/>
       <c r="Q5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>60</v>
+      <c r="R5" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="5"/>
+      <c r="T5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="U5" s="5"/>
-      <c r="V5" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="V5" s="6"/>
       <c r="W5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8" t="n">
         <v>-0.000001</v>
       </c>
-      <c r="X5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="Y5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6" t="n">
         <v>1.000001</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AA5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7" t="s">
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="6" t="s">
+      <c r="R6" s="9"/>
+      <c r="S6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="6" t="s">
+      <c r="R7" s="9"/>
+      <c r="S7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="6" t="s">
+      <c r="R8" s="9"/>
+      <c r="S8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="6"/>
+      <c r="AB8" s="8"/>
       <c r="AC8" s="7"/>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="6" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="6"/>
+      <c r="AB9" s="8"/>
       <c r="AC9" s="7"/>
+      <c r="AD9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="B11" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="n">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="I11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="L11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="6" t="s">
+      <c r="R11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC10"/>
+  <autoFilter ref="A1:AD11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t xml:space="preserve">Summary: df1 and df2 have different records and/or non-unique records</t>
   </si>
@@ -58,46 +58,19 @@
     <t xml:space="preserve">Rows</t>
   </si>
   <si>
-    <t xml:space="preserve">See</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all (for a comparison), or df1 and df2 (for the raw data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changed (top/bottom view) or changed_lr (left/right view)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matched</t>
   </si>
   <si>
-    <t xml:space="preserve">matched</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exact duplicates</t>
   </si>
   <si>
-    <t xml:space="preserve">exact_dups</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID only duplicates</t>
   </si>
   <si>
     <t xml:space="preserve">Fix these records and re-run comparison</t>
   </si>
   <si>
-    <t xml:space="preserve">id_dups</t>
-  </si>
-  <si>
     <t xml:space="preserve">`NA` ID values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_NA</t>
   </si>
   <si>
     <t xml:space="preserve">Column</t>
@@ -788,7 +761,6 @@
     <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="65.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="65.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -798,7 +770,6 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -887,9 +858,6 @@
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
@@ -902,9 +870,6 @@
         <v>8</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
@@ -915,9 +880,6 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -928,9 +890,6 @@
         <v>1</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
@@ -943,13 +902,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>0</v>
@@ -958,13 +914,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>2</v>
@@ -973,13 +926,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>2</v>
@@ -988,15 +938,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>1</v>
@@ -1005,10 +952,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1041,30 +985,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
@@ -1079,15 +1023,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="b">
         <v>1</v>
@@ -1102,15 +1046,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="b">
         <v>1</v>
@@ -1125,15 +1069,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>
@@ -1148,15 +1092,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="b">
         <v>1</v>
@@ -1171,15 +1115,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="b">
         <v>1</v>
@@ -1194,15 +1138,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="b">
         <v>1</v>
@@ -1217,15 +1161,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="b">
         <v>1</v>
@@ -1240,15 +1184,15 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="b">
         <v>1</v>
@@ -1263,15 +1207,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="b">
         <v>1</v>
@@ -1286,15 +1230,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="b">
         <v>1</v>
@@ -1309,15 +1253,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="b">
         <v>1</v>
@@ -1330,13 +1274,13 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="b">
         <v>0</v>
@@ -1350,7 +1294,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1398,63 +1342,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -1468,23 +1412,23 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="7" t="n">
@@ -1494,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1516,23 +1460,23 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="8" t="n">
@@ -1543,12 +1487,12 @@
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -1562,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>2</v>
@@ -1574,7 +1518,7 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="7" t="n">
@@ -1584,13 +1528,13 @@
         <v>1</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -1604,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -1616,7 +1560,7 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="8" t="n">
@@ -1627,12 +1571,12 @@
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
@@ -1646,11 +1590,11 @@
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -1659,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="7" t="n">
@@ -1672,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -1692,11 +1636,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>2</v>
@@ -1705,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="8" t="n">
@@ -1719,12 +1663,12 @@
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -1738,23 +1682,23 @@
         <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="7" t="n">
@@ -1764,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -1784,23 +1728,23 @@
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="8" t="n">
@@ -1811,12 +1755,12 @@
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -1830,13 +1774,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1845,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="n">
@@ -1858,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -1878,13 +1822,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1893,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="n">
@@ -1906,13 +1850,13 @@
         <v>1</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
@@ -1926,13 +1870,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>5</v>
@@ -1941,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="n">
@@ -1954,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -1976,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1985,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="n">
@@ -1998,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -2016,13 +1960,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J14" s="8" t="n">
         <v>6</v>
@@ -2031,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="n">
@@ -2045,12 +1989,12 @@
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
@@ -2064,13 +2008,13 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -2079,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="n">
@@ -2092,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -2112,13 +2056,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>5</v>
@@ -2127,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="n">
@@ -2141,7 +2085,7 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2196,99 +2140,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -2303,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>1</v>
@@ -2312,10 +2256,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>1</v>
@@ -2326,16 +2270,16 @@
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="6"/>
@@ -2352,17 +2296,17 @@
         <v>1</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB2" s="8"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>2</v>
@@ -2375,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>2</v>
@@ -2396,10 +2340,10 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
       <c r="S3" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
@@ -2416,17 +2360,17 @@
         <v>1.0001</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>3</v>
@@ -2439,15 +2383,15 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>2</v>
@@ -2462,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="6"/>
@@ -2488,17 +2432,17 @@
         <v>1.00001</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>4</v>
@@ -2511,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>4</v>
@@ -2520,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>3</v>
@@ -2534,16 +2478,16 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6"/>
@@ -2560,17 +2504,17 @@
         <v>1.000001</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB5" s="8"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -2583,14 +2527,14 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="n">
@@ -2602,11 +2546,11 @@
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -2620,7 +2564,7 @@
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="7"/>
@@ -2628,7 +2572,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -2641,14 +2585,14 @@
         <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="n">
@@ -2660,11 +2604,11 @@
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -2678,7 +2622,7 @@
       </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="7"/>
@@ -2686,7 +2630,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="n">
@@ -2699,14 +2643,14 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="n">
@@ -2718,11 +2662,11 @@
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -2736,7 +2680,7 @@
       </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="7"/>
@@ -2744,7 +2688,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -2760,7 +2704,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="n">
@@ -2772,11 +2716,11 @@
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2790,7 +2734,7 @@
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="7"/>
@@ -2798,7 +2742,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="10"/>
@@ -2809,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="8" t="n">
@@ -2817,7 +2761,7 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="8" t="n">
@@ -2829,11 +2773,11 @@
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="8"/>
@@ -2849,12 +2793,12 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>7</v>
@@ -2867,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
@@ -2876,10 +2820,10 @@
         <v>5</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>5</v>
@@ -2894,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="6"/>
@@ -2920,12 +2864,12 @@
         <v>1</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2962,40 +2906,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -3003,13 +2947,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
@@ -3029,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -3037,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>2</v>
@@ -3059,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -3067,11 +3011,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2</v>
@@ -3093,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -3101,13 +3045,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>3</v>
@@ -3127,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -3135,13 +3079,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>5</v>
@@ -3163,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -3171,13 +3115,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>5</v>
@@ -3199,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -3207,13 +3151,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>5</v>
@@ -3235,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -3243,13 +3187,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>5</v>
@@ -3271,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -3283,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>5</v>
@@ -3305,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -3313,13 +3257,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>5</v>
@@ -3341,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3378,40 +3322,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -3419,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
@@ -3435,7 +3379,7 @@
         <v>44927</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="n">
@@ -3445,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -3453,13 +3397,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
@@ -3469,7 +3413,7 @@
         <v>44927</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="n">
@@ -3479,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -3487,13 +3431,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1</v>
@@ -3503,7 +3447,7 @@
         <v>44927</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="n">
@@ -3513,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -3521,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>2</v>
@@ -3533,7 +3477,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="n">
@@ -3543,7 +3487,7 @@
         <v>1.0001</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -3551,11 +3495,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>2</v>
@@ -3567,7 +3511,7 @@
         <v>44929</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="n">
@@ -3577,7 +3521,7 @@
         <v>1.00001</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -3585,13 +3529,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>3</v>
@@ -3601,7 +3545,7 @@
         <v>44930</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="n">
@@ -3611,7 +3555,7 @@
         <v>1.000001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -3619,13 +3563,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>6</v>
@@ -3637,7 +3581,7 @@
         <v>44932</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="n">
@@ -3647,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -3655,13 +3599,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>5</v>
@@ -3673,7 +3617,7 @@
         <v>44931</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="n">
@@ -3683,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -329,9 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -419,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,7 +447,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2959,8 +2956,8 @@
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <v>44927</v>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>100</v>
@@ -3023,8 +3020,8 @@
       <c r="F4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>44929</v>
+      <c r="G4" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>100</v>
@@ -3057,8 +3054,8 @@
         <v>3</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="n">
-        <v>44930</v>
+      <c r="G5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>100</v>
@@ -3093,8 +3090,8 @@
       <c r="F6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>44931</v>
+      <c r="G6" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>100</v>
@@ -3129,8 +3126,8 @@
       <c r="F7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>44931</v>
+      <c r="G7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>100</v>
@@ -3165,8 +3162,8 @@
       <c r="F8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>44931</v>
+      <c r="G8" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>100</v>
@@ -3201,8 +3198,8 @@
       <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>44931</v>
+      <c r="G9" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>100</v>
@@ -3235,8 +3232,8 @@
       <c r="F10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>44931</v>
+      <c r="G10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>100</v>
@@ -3271,8 +3268,8 @@
       <c r="F11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>44931</v>
+      <c r="G11" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>100</v>
@@ -3375,8 +3372,8 @@
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <v>44927</v>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>51</v>
@@ -3409,8 +3406,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="n">
-        <v>44927</v>
+      <c r="G3" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>51</v>
@@ -3443,8 +3440,8 @@
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5" t="n">
-        <v>44927</v>
+      <c r="G4" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>51</v>
@@ -3507,8 +3504,8 @@
       <c r="F6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>44929</v>
+      <c r="G6" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>51</v>
@@ -3541,8 +3538,8 @@
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="n">
-        <v>44930</v>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>51</v>
@@ -3577,8 +3574,8 @@
       <c r="F8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>44932</v>
+      <c r="G8" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>51</v>
@@ -3613,8 +3610,8 @@
       <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>44931</v>
+      <c r="G9" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>51</v>

--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -8,19 +8,20 @@
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="summary by column" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data top-bottom" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data left-right" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="df1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="df2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="pivoted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data top-bottom" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data left-right" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="df1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="df2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'df2'!$A$1:$L$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'df2'!$A$1:$L$9</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">Summary: df1 and df2 have different records and/or non-unique records</t>
   </si>
@@ -148,6 +149,159 @@
     <t xml:space="preserve">extra2</t>
   </si>
   <si>
+    <t xml:space="preserve">column name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1 value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df2 value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row discrepancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2 value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1 and df2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID duplicate (not exact duplicate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition, exact duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID contains `NA`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">discrepancy</t>
   </si>
   <si>
@@ -163,82 +317,7 @@
     <t xml:space="preserve">ID dup cnt</t>
   </si>
   <si>
-    <t xml:space="preserve">changed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
     <t xml:space="preserve">changed, exact duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID duplicate (not exact duplicate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addition, exact duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID contains `NA`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">exact dup cnt.df1</t>
@@ -1311,6 +1390,2817 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" xSplit="7" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -1339,19 +4229,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>24</v>
@@ -1395,7 +4285,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -1409,23 +4299,23 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="7" t="n">
@@ -1441,7 +4331,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1457,23 +4347,23 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="8" t="n">
@@ -1489,7 +4379,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -1503,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>2</v>
@@ -1515,7 +4405,7 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="7" t="n">
@@ -1531,7 +4421,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -1545,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -1557,7 +4447,7 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="8" t="n">
@@ -1573,7 +4463,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
@@ -1587,11 +4477,11 @@
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -1600,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="7" t="n">
@@ -1619,7 +4509,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -1633,11 +4523,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>2</v>
@@ -1646,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="8" t="n">
@@ -1665,7 +4555,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -1679,23 +4569,23 @@
         <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="7" t="n">
@@ -1711,7 +4601,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -1725,23 +4615,23 @@
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="8" t="n">
@@ -1757,7 +4647,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -1771,13 +4661,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1786,10 +4676,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="n">
@@ -1805,7 +4695,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -1819,13 +4709,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1834,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="n">
@@ -1853,7 +4743,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
@@ -1867,13 +4757,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>5</v>
@@ -1882,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="n">
@@ -1901,7 +4791,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -1917,7 +4807,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1926,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="n">
@@ -1945,7 +4835,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -1957,13 +4847,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="J14" s="8" t="n">
         <v>6</v>
@@ -1972,10 +4862,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="n">
@@ -1991,7 +4881,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
@@ -2005,13 +4895,13 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -2020,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="n">
@@ -2039,7 +4929,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -2053,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>5</v>
@@ -2068,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="n">
@@ -2092,7 +4982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2137,22 +5027,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>24</v>
@@ -2161,75 +5051,75 @@
         <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -2244,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>1</v>
@@ -2253,10 +5143,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>1</v>
@@ -2267,16 +5157,16 @@
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="6"/>
@@ -2303,7 +5193,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>2</v>
@@ -2316,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>2</v>
@@ -2337,10 +5227,10 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
       <c r="S3" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
@@ -2367,7 +5257,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>3</v>
@@ -2380,15 +5270,15 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>2</v>
@@ -2403,16 +5293,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="6"/>
@@ -2439,7 +5329,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>4</v>
@@ -2452,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>4</v>
@@ -2461,10 +5351,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>3</v>
@@ -2475,16 +5365,16 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6"/>
@@ -2511,7 +5401,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -2524,14 +5414,14 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="n">
@@ -2543,11 +5433,11 @@
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -2569,7 +5459,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -2582,14 +5472,14 @@
         <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="n">
@@ -2601,11 +5491,11 @@
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -2627,7 +5517,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="n">
@@ -2640,14 +5530,14 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="n">
@@ -2659,11 +5549,11 @@
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -2685,7 +5575,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -2701,7 +5591,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="n">
@@ -2713,11 +5603,11 @@
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2739,7 +5629,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="10"/>
@@ -2750,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="8" t="n">
@@ -2758,7 +5648,7 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="8" t="n">
@@ -2770,11 +5660,11 @@
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="8" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="8"/>
@@ -2795,7 +5685,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>7</v>
@@ -2808,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
@@ -2817,10 +5707,10 @@
         <v>5</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>5</v>
@@ -2835,16 +5725,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="6"/>
@@ -2871,422 +5761,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AD11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <cols>
-    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="15.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="15.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -3352,7 +5826,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -3360,23 +5834,439 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="15.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="n">
@@ -3394,23 +6284,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="n">
@@ -3428,23 +6318,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="n">
@@ -3462,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>2</v>
@@ -3474,7 +6364,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="n">
@@ -3492,11 +6382,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>2</v>
@@ -3505,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="n">
@@ -3526,23 +6416,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="n">
@@ -3560,13 +6450,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>6</v>
@@ -3575,10 +6465,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="n">
@@ -3596,13 +6486,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>5</v>
@@ -3611,10 +6501,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="n">

--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve">Summary: df1 and df2 have different records and/or non-unique records</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">record from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d2 value</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1403,7 +1400,6 @@
     <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1431,97 +1427,91 @@
       <c r="H1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>32</v>
@@ -1529,76 +1519,73 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>37</v>
@@ -1606,76 +1593,73 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>40</v>
@@ -1685,22 +1669,21 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>41</v>
@@ -1710,49 +1693,47 @@
         <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>29</v>
@@ -1760,22 +1741,21 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>30</v>
@@ -1783,49 +1763,47 @@
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>34</v>
@@ -1833,49 +1811,47 @@
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>37</v>
@@ -1883,76 +1859,73 @@
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>40</v>
@@ -1962,22 +1935,21 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>41</v>
@@ -1987,22 +1959,21 @@
         <v>41</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -2010,157 +1981,151 @@
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>37</v>
@@ -2168,76 +2133,73 @@
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>40</v>
@@ -2247,22 +2209,21 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>41</v>
@@ -2272,103 +2233,99 @@
         <v>41</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>32</v>
@@ -2376,76 +2333,73 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>37</v>
@@ -2453,76 +2407,73 @@
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>40</v>
@@ -2532,22 +2483,21 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="5"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>41</v>
@@ -2557,172 +2507,165 @@
         <v>41</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="5"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I47" s="5"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I48" s="5"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="5"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>37</v>
@@ -2730,72 +2673,69 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>40</v>
@@ -2805,22 +2745,21 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>41</v>
@@ -2828,172 +2767,165 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>37</v>
@@ -3001,72 +2933,69 @@
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
       <c r="F63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H64" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>40</v>
@@ -3076,22 +3005,21 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>41</v>
@@ -3099,172 +3027,165 @@
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I67" s="5"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="5"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I71" s="5"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I72" s="5"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="5"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>37</v>
@@ -3272,72 +3193,69 @@
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
       <c r="F74" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I74" s="5"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I75" s="5"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I76" s="5"/>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>40</v>
@@ -3347,22 +3265,21 @@
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I77" s="5"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>41</v>
@@ -3370,157 +3287,150 @@
       <c r="D78" s="7"/>
       <c r="E78" s="8"/>
       <c r="F78" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I78" s="5"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I79" s="5"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I81" s="5"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I82" s="5"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I83" s="5"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I84" s="5"/>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
@@ -3529,65 +3439,62 @@
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
@@ -3598,19 +3505,18 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
@@ -3619,184 +3525,177 @@
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G91" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H91" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H93" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G94" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H94" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G95" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I95" s="5"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>37</v>
@@ -3804,76 +3703,73 @@
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G96" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H97" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I97" s="5"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H98" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I98" s="5"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>40</v>
@@ -3883,22 +3779,21 @@
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H99" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I99" s="5"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>41</v>
@@ -3908,172 +3803,165 @@
         <v>41</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H100" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="8"/>
+      <c r="E101" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F101" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D102" s="7"/>
-      <c r="E102" s="8"/>
+      <c r="E102" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="F102" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="5" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D103" s="7"/>
-      <c r="E103" s="8"/>
+      <c r="E103" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F103" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="5" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D104" s="7"/>
-      <c r="E104" s="8"/>
+      <c r="E104" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F104" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D105" s="7"/>
-      <c r="E105" s="8"/>
+      <c r="E105" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F105" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I105" s="5" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="8"/>
+      <c r="E106" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F106" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I106" s="5" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>37</v>
@@ -4081,72 +3969,69 @@
       <c r="D107" s="7"/>
       <c r="E107" s="8"/>
       <c r="F107" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="8"/>
+      <c r="E108" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="F108" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I108" s="5" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="8"/>
+      <c r="E109" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F109" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I109" s="5" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>40</v>
@@ -4154,43 +4039,41 @@
       <c r="D110" s="7"/>
       <c r="E110" s="8"/>
       <c r="F110" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I110" s="5"/>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="8"/>
+      <c r="E111" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F111" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I111" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -4229,19 +4112,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>24</v>
@@ -4285,7 +4168,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -4299,23 +4182,23 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="7" t="n">
@@ -4331,7 +4214,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -4347,23 +4230,23 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="8" t="n">
@@ -4379,7 +4262,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -4393,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>2</v>
@@ -4405,7 +4288,7 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="7" t="n">
@@ -4421,7 +4304,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -4435,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -4447,7 +4330,7 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="8" t="n">
@@ -4463,7 +4346,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
@@ -4477,11 +4360,11 @@
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4490,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="7" t="n">
@@ -4509,7 +4392,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -4523,11 +4406,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>2</v>
@@ -4536,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="8" t="n">
@@ -4555,7 +4438,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -4569,23 +4452,23 @@
         <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="7" t="n">
@@ -4601,7 +4484,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -4615,23 +4498,23 @@
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="8" t="n">
@@ -4647,7 +4530,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -4661,13 +4544,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -4676,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="n">
@@ -4695,7 +4578,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -4709,13 +4592,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -4724,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="n">
@@ -4743,7 +4626,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
@@ -4757,13 +4640,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>5</v>
@@ -4772,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="n">
@@ -4791,7 +4674,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -4807,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4816,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="n">
@@ -4835,7 +4718,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -4847,13 +4730,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" s="8" t="n">
         <v>6</v>
@@ -4862,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="n">
@@ -4881,7 +4764,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
@@ -4895,13 +4778,13 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -4910,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="n">
@@ -4929,7 +4812,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -4943,13 +4826,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>5</v>
@@ -4958,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="n">
@@ -5027,22 +4910,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>24</v>
@@ -5051,75 +4934,75 @@
         <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -5134,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>1</v>
@@ -5143,10 +5026,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>1</v>
@@ -5157,16 +5040,16 @@
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="6"/>
@@ -5193,7 +5076,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>2</v>
@@ -5206,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>2</v>
@@ -5227,10 +5110,10 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
       <c r="S3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
@@ -5257,7 +5140,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>3</v>
@@ -5270,15 +5153,15 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>2</v>
@@ -5293,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="6"/>
@@ -5329,7 +5212,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>4</v>
@@ -5342,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>4</v>
@@ -5351,10 +5234,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>3</v>
@@ -5365,16 +5248,16 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6"/>
@@ -5401,7 +5284,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -5414,14 +5297,14 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="n">
@@ -5433,11 +5316,11 @@
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -5459,7 +5342,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -5472,14 +5355,14 @@
         <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="n">
@@ -5491,11 +5374,11 @@
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -5517,7 +5400,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="n">
@@ -5530,14 +5413,14 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="n">
@@ -5549,11 +5432,11 @@
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -5575,7 +5458,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -5591,7 +5474,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="n">
@@ -5603,11 +5486,11 @@
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -5629,7 +5512,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="10"/>
@@ -5640,7 +5523,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="8" t="n">
@@ -5648,7 +5531,7 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="8" t="n">
@@ -5660,11 +5543,11 @@
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="8"/>
@@ -5685,7 +5568,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>7</v>
@@ -5698,7 +5581,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
@@ -5707,10 +5590,10 @@
         <v>5</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>5</v>
@@ -5725,16 +5608,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="6"/>
@@ -5834,20 +5717,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>100</v>
@@ -5868,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>2</v>
@@ -5898,11 +5781,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2</v>
@@ -5911,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>100</v>
@@ -5932,20 +5815,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>100</v>
@@ -5966,13 +5849,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>5</v>
@@ -5981,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>100</v>
@@ -6002,13 +5885,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>5</v>
@@ -6017,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>100</v>
@@ -6038,13 +5921,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>5</v>
@@ -6053,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>100</v>
@@ -6074,13 +5957,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>5</v>
@@ -6089,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>100</v>
@@ -6114,7 +5997,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>5</v>
@@ -6123,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>100</v>
@@ -6144,13 +6027,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>5</v>
@@ -6159,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>100</v>
@@ -6250,23 +6133,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="n">
@@ -6284,23 +6167,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="n">
@@ -6318,23 +6201,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="n">
@@ -6352,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>2</v>
@@ -6364,7 +6247,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="n">
@@ -6382,11 +6265,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>2</v>
@@ -6395,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="n">
@@ -6416,23 +6299,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="n">
@@ -6450,13 +6333,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>6</v>
@@ -6465,10 +6348,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="n">
@@ -6486,13 +6369,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>5</v>
@@ -6501,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="n">

--- a/inst/extdata/comparison_report.xlsx
+++ b/inst/extdata/comparison_report.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="summary by column" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="pivoted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data pivoted" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="data top-bottom" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="data left-right" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="df1" sheetId="6" state="visible" r:id="rId6"/>
@@ -21,18 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">Summary: df1 and df2 have different records and/or non-unique records</t>
   </si>
   <si>
+    <t xml:space="preserve">Data frames compared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data frame 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data frame 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df2</t>
   </si>
   <si>
     <t xml:space="preserve">Issues</t>
@@ -848,189 +857,220 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="n">
+      <c r="B20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="E1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1058,30 +1098,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
@@ -1096,15 +1136,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="b">
         <v>1</v>
@@ -1119,15 +1159,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="b">
         <v>1</v>
@@ -1142,15 +1182,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>
@@ -1165,15 +1205,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="b">
         <v>1</v>
@@ -1188,15 +1228,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="b">
         <v>1</v>
@@ -1211,15 +1251,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="b">
         <v>1</v>
@@ -1234,15 +1274,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="b">
         <v>1</v>
@@ -1257,15 +1297,15 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="b">
         <v>1</v>
@@ -1280,15 +1320,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="b">
         <v>1</v>
@@ -1303,15 +1343,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="b">
         <v>1</v>
@@ -1326,15 +1366,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="b">
         <v>1</v>
@@ -1347,13 +1387,13 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="b">
         <v>0</v>
@@ -1367,7 +1407,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1404,1137 +1444,1137 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>2</v>
@@ -2542,23 +2582,23 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>2</v>
@@ -2566,23 +2606,23 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>2</v>
@@ -2590,23 +2630,23 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>2</v>
@@ -2614,23 +2654,23 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>2</v>
@@ -2638,23 +2678,23 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>2</v>
@@ -2662,21 +2702,21 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>2</v>
@@ -2684,23 +2724,23 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>2</v>
@@ -2708,23 +2748,23 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>2</v>
@@ -2732,23 +2772,23 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>2</v>
@@ -2756,21 +2796,21 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>2</v>
@@ -2778,23 +2818,23 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>2</v>
@@ -2802,23 +2842,23 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>2</v>
@@ -2826,23 +2866,23 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>2</v>
@@ -2850,23 +2890,23 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>2</v>
@@ -2874,23 +2914,23 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>2</v>
@@ -2898,23 +2938,23 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>2</v>
@@ -2922,21 +2962,21 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
       <c r="F63" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>2</v>
@@ -2944,23 +2984,23 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>2</v>
@@ -2968,23 +3008,23 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>2</v>
@@ -2992,23 +3032,23 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>2</v>
@@ -3016,21 +3056,21 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>2</v>
@@ -3038,23 +3078,23 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>2</v>
@@ -3062,23 +3102,23 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>2</v>
@@ -3086,23 +3126,23 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>2</v>
@@ -3110,23 +3150,23 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>2</v>
@@ -3134,23 +3174,23 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>2</v>
@@ -3158,23 +3198,23 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>2</v>
@@ -3182,21 +3222,21 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
       <c r="F74" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>2</v>
@@ -3204,23 +3244,23 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>2</v>
@@ -3228,23 +3268,23 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>2</v>
@@ -3252,23 +3292,23 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>2</v>
@@ -3276,21 +3316,21 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="8"/>
       <c r="F78" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>2</v>
@@ -3298,21 +3338,21 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>2</v>
@@ -3320,21 +3360,21 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>2</v>
@@ -3342,21 +3382,21 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>2</v>
@@ -3364,21 +3404,21 @@
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>2</v>
@@ -3386,21 +3426,21 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>2</v>
@@ -3408,21 +3448,21 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>2</v>
@@ -3430,19 +3470,19 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>2</v>
@@ -3450,21 +3490,21 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>2</v>
@@ -3472,21 +3512,21 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>2</v>
@@ -3494,21 +3534,21 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>2</v>
@@ -3516,19 +3556,19 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>2</v>
@@ -3536,540 +3576,540 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D95" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="G104" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="8"/>
       <c r="F107" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="8"/>
       <c r="F110" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4112,63 +4152,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -4182,23 +4222,23 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="7" t="n">
@@ -4208,16 +4248,16 @@
         <v>1</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>1</v>
@@ -4230,23 +4270,23 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="8" t="n">
@@ -4257,12 +4297,12 @@
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -4276,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>2</v>
@@ -4288,7 +4328,7 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="7" t="n">
@@ -4298,16 +4338,16 @@
         <v>1</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2</v>
@@ -4318,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -4330,7 +4370,7 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="8" t="n">
@@ -4341,12 +4381,12 @@
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
@@ -4360,11 +4400,11 @@
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4373,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="7" t="n">
@@ -4386,16 +4426,16 @@
         <v>1</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>3</v>
@@ -4406,11 +4446,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>2</v>
@@ -4419,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="8" t="n">
@@ -4433,12 +4473,12 @@
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -4452,23 +4492,23 @@
         <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="7" t="n">
@@ -4478,16 +4518,16 @@
         <v>1</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>4</v>
@@ -4498,23 +4538,23 @@
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="8" t="n">
@@ -4525,12 +4565,12 @@
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -4544,13 +4584,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -4559,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="n">
@@ -4572,13 +4612,13 @@
         <v>1</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -4592,13 +4632,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -4607,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="n">
@@ -4620,13 +4660,13 @@
         <v>1</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
@@ -4640,13 +4680,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>5</v>
@@ -4655,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="n">
@@ -4668,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -4690,7 +4730,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4699,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="n">
@@ -4712,16 +4752,16 @@
         <v>1</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4730,13 +4770,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J14" s="8" t="n">
         <v>6</v>
@@ -4745,10 +4785,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="n">
@@ -4759,12 +4799,12 @@
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
@@ -4778,13 +4818,13 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -4793,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="n">
@@ -4806,16 +4846,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>7</v>
@@ -4826,13 +4866,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>5</v>
@@ -4841,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="n">
@@ -4855,7 +4895,7 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4910,99 +4950,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -5017,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>1</v>
@@ -5026,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>1</v>
@@ -5040,16 +5080,16 @@
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="6"/>
@@ -5066,17 +5106,17 @@
         <v>1</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="8"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>2</v>
@@ -5089,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>2</v>
@@ -5110,10 +5150,10 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
       <c r="S3" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
@@ -5130,17 +5170,17 @@
         <v>1.0001</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>3</v>
@@ -5153,15 +5193,15 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>2</v>
@@ -5176,16 +5216,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="6"/>
@@ -5202,17 +5242,17 @@
         <v>1.00001</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>4</v>
@@ -5225,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>4</v>
@@ -5234,10 +5274,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>3</v>
@@ -5248,16 +5288,16 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6"/>
@@ -5274,17 +5314,17 @@
         <v>1.000001</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="8"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -5297,14 +5337,14 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="n">
@@ -5316,11 +5356,11 @@
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -5334,7 +5374,7 @@
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="7"/>
@@ -5342,7 +5382,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -5355,14 +5395,14 @@
         <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="n">
@@ -5374,11 +5414,11 @@
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -5392,7 +5432,7 @@
       </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="7"/>
@@ -5400,7 +5440,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="n">
@@ -5413,14 +5453,14 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="n">
@@ -5432,11 +5472,11 @@
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -5450,7 +5490,7 @@
       </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="7"/>
@@ -5458,7 +5498,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -5474,7 +5514,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="n">
@@ -5486,11 +5526,11 @@
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -5504,7 +5544,7 @@
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="7"/>
@@ -5512,7 +5552,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="10"/>
@@ -5523,7 +5563,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="8" t="n">
@@ -5531,7 +5571,7 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="8" t="n">
@@ -5543,11 +5583,11 @@
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="8"/>
@@ -5563,12 +5603,12 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>7</v>
@@ -5581,7 +5621,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
@@ -5590,10 +5630,10 @@
         <v>5</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>5</v>
@@ -5608,16 +5648,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="6"/>
@@ -5634,12 +5674,12 @@
         <v>1</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5676,40 +5716,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -5717,20 +5757,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>100</v>
@@ -5743,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -5751,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>2</v>
@@ -5773,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -5781,11 +5821,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2</v>
@@ -5794,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>100</v>
@@ -5807,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -5815,20 +5855,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>100</v>
@@ -5841,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -5849,13 +5889,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>5</v>
@@ -5864,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>100</v>
@@ -5877,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -5885,13 +5925,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>5</v>
@@ -5900,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>100</v>
@@ -5913,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -5921,13 +5961,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>5</v>
@@ -5936,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>100</v>
@@ -5949,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -5957,13 +5997,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>5</v>
@@ -5972,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>100</v>
@@ -5985,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -5997,7 +6037,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>5</v>
@@ -6006,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>100</v>
@@ -6019,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -6027,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>5</v>
@@ -6042,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>100</v>
@@ -6055,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6092,40 +6132,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -6133,23 +6173,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="n">
@@ -6159,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -6167,23 +6207,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="n">
@@ -6193,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -6201,23 +6241,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="n">
@@ -6227,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -6235,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>2</v>
@@ -6247,7 +6287,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="n">
@@ -6257,7 +6297,7 @@
         <v>1.0001</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -6265,11 +6305,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>2</v>
@@ -6278,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="n">
@@ -6291,7 +6331,7 @@
         <v>1.00001</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -6299,23 +6339,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="n">
@@ -6325,7 +6365,7 @@
         <v>1.000001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -6333,13 +6373,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>6</v>
@@ -6348,10 +6388,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="n">
@@ -6361,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -6369,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>5</v>
@@ -6384,10 +6424,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="n">
@@ -6397,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
